--- a/app/training/q.xlsx
+++ b/app/training/q.xlsx
@@ -22,6 +22,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
+    <t xml:space="preserve">Material Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABC Indicator</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rata - Rata Permintaan Barang (D) Unit/Tahun</t>
   </si>
   <si>
@@ -41,15 +50,6 @@
   </si>
   <si>
     <t xml:space="preserve">Ongkos Kekurangan Inventori (Cu) /Unit/Tahun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Material Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABC Indicator</t>
   </si>
   <si>
     <t xml:space="preserve">BEARING,BALL:DG;1R;30X72X19MM;2SHLD</t>
@@ -163,21 +163,24 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="A1:J1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -212,68 +215,68 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
+        <v>6020543</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>7.733333333</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>135.3057143</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>2.702914561</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>56783</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>8517.45</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>3720000000</v>
       </c>
-      <c r="H2" s="0" t="n">
-        <v>6020543</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>6161336</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>22.81818182</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>83.21904762</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>10.26357195</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>3800000</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>570000</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>3720000000</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>6161336</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
